--- a/biology/Botanique/Les_Rebelles_de_la_forêt_2/Les_Rebelles_de_la_forêt_2.xlsx
+++ b/biology/Botanique/Les_Rebelles_de_la_forêt_2/Les_Rebelles_de_la_forêt_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_2</t>
+          <t>Les_Rebelles_de_la_forêt_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rebelles de la forêt 2 (Open Season 2) est un long métrage d'animation américain en images de synthèse, réalisé par Matthew O'Callaghan et Todd Wilderman, produit par Sony Pictures et sorti directement en vidéo le 24 septembre 2008 aux États-Unis. Il est la suite du film Les Rebelles de la forêt sorti en 2006.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_2</t>
+          <t>Les_Rebelles_de_la_forêt_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Sypnosis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors qu'il s’apprête à se marier avec Giselle, Elliot se rend brusquement compte que Monsieur Saucisse est enlevé par ses propriétaires Bob et Bobby, qui le ramènent auprès d'un groupe d'animaux domestiques, dirigé par le caniche Fifi, qui voue une haine féroce envers les bêtes sauvages. Boog, Elliot et tous les autres rebelles se lancent dans une grande mission de sauvetage pour lui venir en aide. C'est le début d'une guerre entre les animaux sauvages et les animaux domestiques.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_2</t>
+          <t>Les_Rebelles_de_la_forêt_2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Rebelles de la forêt 2
 Titre original : Open Season 2
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_2</t>
+          <t>Les_Rebelles_de_la_forêt_2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,8 +599,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Joel McHale : Elliot
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Joel McHale : Elliot
 Mike Epps : Boog
 Cody Cameron : Mr. Saucisse
 Jane Krakowski : Giselle
@@ -599,9 +620,43 @@
 Maddie W. Taylor : Deni, Buddy, Ian
 Georgia Engel : Bobbie
 Nika Futterman : Rosie
-Michelle Murdocca : Maria
-Voix françaises
-Pascal Légitimus : Boog
+Michelle Murdocca : Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Rebelles_de_la_forêt_2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Rebelles_de_la_for%C3%AAt_2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pascal Légitimus : Boog
 Julien Courbey : Elliot
 Bernard Gabay : Fifi
 Cécile Nodie : Giselle
@@ -630,9 +685,43 @@
 Christiane Ludot
 Hervé Marielle
 Patricia Piazza
-Mathieu Uhl
-Voix québécoises
-Martin Watier : Elliot
+Mathieu Uhl</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Rebelles_de_la_forêt_2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Rebelles_de_la_for%C3%AAt_2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix québécoises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Martin Watier : Elliot
 Thiéry Dubé : Boog
 Violette Chauveau : Giselle
 Nicholas Savard L'Herbier : Fifi
@@ -641,9 +730,43 @@
 Aurélie Morgane : Charlene
 François Godin : Rufus
 Paul Sarrasin : Buddy
-Johanne Garneau : Maria
-Chanson Près de Toi
-Cette chanson traduite librement pour les besoins du film est en fait un titre de 1970 créé par THE CARPENTERS et dont le titre est CLOSE TO YOU</t>
+Johanne Garneau : Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Rebelles_de_la_forêt_2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Rebelles_de_la_for%C3%AAt_2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chanson Près de Toi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cette chanson traduite librement pour les besoins du film est en fait un titre de 1970 créé par THE CARPENTERS et dont le titre est CLOSE TO YOU</t>
         </is>
       </c>
     </row>
